--- a/Event Stormin/Clientes-Event Storming.xlsx
+++ b/Event Stormin/Clientes-Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5EA6BB-A07D-4781-B1B9-595DFDC75902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CC26B-F0E5-4516-9125-C7D65AE8DEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -1171,23 +1171,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17196</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>145772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146891</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58076121-B5F1-53A6-FBF3-E21FA05DD7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BF6955-FDE2-30AE-EDC9-110E6E28CE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,8 +1203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025589" y="577490"/>
-          <a:ext cx="7511771" cy="4051754"/>
+          <a:off x="5351930" y="1004047"/>
+          <a:ext cx="3715268" cy="2991267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1515,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1538,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>

--- a/Event Stormin/Clientes-Event Storming.xlsx
+++ b/Event Stormin/Clientes-Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CC26B-F0E5-4516-9125-C7D65AE8DEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609DFE15-2590-4B53-8654-005DCDFD3F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>Descripción contexto</t>
   </si>
   <si>
-    <t>Promocion</t>
-  </si>
-  <si>
     <t>Propia</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Pol-cliente-003</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
   </si>
 </sst>
 </file>
@@ -955,6 +955,75 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,10 +1033,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,11 +1051,56 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,118 +1108,19 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,24 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1515,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1540,7 +1540,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="50"/>
@@ -1567,7 +1567,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="52"/>
@@ -1588,30 +1588,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1663,84 +1663,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="54" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="56" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio el cual nos representa a la persona que compra en la tienda</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1750,52 +1750,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="62" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="86"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1808,39 +1808,39 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:14" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="D7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82" t="str">
+        <v>47</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68" t="str">
         <f>J10</f>
         <v>cliente consultado</v>
       </c>
@@ -1851,73 +1851,73 @@
     </row>
     <row r="8" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+        <v>31</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="99" t="str">
+        <v>49</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="91" t="str">
         <f>B13</f>
         <v>Modificar cliente</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="100"/>
+        <v>48</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="92"/>
     </row>
     <row r="10" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="61"/>
+      <c r="D10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="73"/>
       <c r="L10" s="30" t="str">
         <f>J7</f>
         <v>Cliente creado</v>
@@ -1928,20 +1928,20 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="61" t="str">
+      <c r="A11" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="73" t="str">
         <f>J13</f>
         <v>cliente modificado</v>
       </c>
@@ -1951,22 +1951,22 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="96"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="30" t="str">
         <f>B10</f>
         <v>Consultar cliente</v>
@@ -1974,103 +1974,98 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="C13" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="78"/>
       <c r="L13" s="28" t="str">
         <f>J10</f>
         <v>cliente consultado</v>
       </c>
-      <c r="M13" s="91" t="str">
+      <c r="M13" s="88" t="str">
         <f>B10</f>
         <v>Consultar cliente</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+        <v>31</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55" t="str">
+        <v>30</v>
+      </c>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78" t="str">
         <f>J7</f>
         <v>Cliente creado</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="H10:H11"/>
@@ -2087,20 +2082,25 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{673B6DBC-13F3-470A-A671-450A2DD95323}"/>
@@ -2115,9 +2115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3442D2-6988-4267-9C96-B3FF358BEA33}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,84 +2145,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="54" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>Tienda</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="56" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio que representa la tienda fisica o virtual donde se pueden realizar las compras</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2232,52 +2232,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="62" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="86"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2290,38 +2290,38 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="82" t="s">
+      <c r="A7" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="82"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="68"/>
       <c r="L7" s="24" t="str">
         <f>J10</f>
         <v>tienda consultada</v>
@@ -2332,22 +2332,22 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="82" t="str">
+      <c r="A8" s="96"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="68" t="str">
         <f>J16</f>
         <v>tienda eliminada</v>
       </c>
@@ -2357,49 +2357,49 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="33" t="str">
         <f>B16</f>
         <v>Eliminar tienda</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="61"/>
+      <c r="A10" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="73"/>
       <c r="L10" s="30" t="str">
         <f>J7</f>
         <v>tienda creada</v>
@@ -2410,17 +2410,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="25" t="str">
         <f>J13</f>
         <v>tienda modificada</v>
@@ -2431,16 +2431,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="96"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="109"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="96"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="27"/>
       <c r="L12" s="30" t="str">
         <f>J16</f>
@@ -2452,31 +2452,31 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="A13" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="78"/>
       <c r="L13" s="28" t="str">
         <f>J10</f>
         <v>tienda consultada</v>
@@ -2487,71 +2487,71 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55" t="str">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78" t="str">
         <f>J7</f>
         <v>tienda creada</v>
       </c>
-      <c r="M14" s="55" t="str">
+      <c r="M14" s="78" t="str">
         <f>B16</f>
         <v>Eliminar tienda</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="57"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="108"/>
       <c r="L16" s="29" t="str">
         <f>J7</f>
         <v>tienda creada</v>
@@ -2562,46 +2562,95 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
       <c r="L17" s="29" t="str">
         <f>J13</f>
         <v>tienda modificada</v>
       </c>
-      <c r="M17" s="56" t="str">
+      <c r="M17" s="106" t="str">
         <f>B10</f>
         <v>Consultar tienda</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
       <c r="L18" s="29" t="str">
         <f>J10</f>
         <v>tienda consultada</v>
       </c>
-      <c r="M18" s="57"/>
+      <c r="M18" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2618,55 +2667,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -2679,9 +2679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2829,27 +2832,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2873,9 +2864,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
